--- a/choices-template.xlsx
+++ b/choices-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fls3/sandbox/advising-hub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofstandrews907-my.sharepoint.com/personal/dwrj1_st-andrews_ac_uk/Documents/DoT/Advising/Advising-tool/StA_Advising/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D3E574-8D84-6F47-AC60-799561BDDD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{56DABCF1-506A-CF46-B440-B9A28786DD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{328BC332-3E9B-474A-94D0-736751986524}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="24680" windowHeight="14900" xr2:uid="{80DCF18C-07CE-B942-AEAC-AEA347C824BB}"/>
+    <workbookView xWindow="7380" yWindow="4840" windowWidth="24680" windowHeight="21920" xr2:uid="{80DCF18C-07CE-B942-AEAC-AEA347C824BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,64 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>as it will be processed (semi)automatically to ensure that your provisional choices satisfy the programme regulations.</t>
+      <t xml:space="preserve">as it will be processed (semi)automatically to ensure that your provisional choices satisfy the programme regulations. The automatic checks will read in boxes highlighted with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>magenta double lines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for any future years. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Change the filename </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>to include your surname &amp; ID number</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Then upload the excel file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">using the link in the guidance document. </t>
     </r>
   </si>
 </sst>
@@ -242,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -342,21 +399,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -532,6 +574,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -539,7 +607,16 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -547,10 +624,8 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -560,101 +635,38 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="double">
+        <color rgb="FFFF40FF"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <right style="double">
+        <color rgb="FFFF40FF"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFF40FF"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFF40FF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -667,26 +679,62 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -694,122 +742,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -820,6 +832,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF40FF"/>
       <color rgb="FFF6FDF0"/>
       <color rgb="FFEFFDE7"/>
       <color rgb="FFEBF8E3"/>
@@ -1139,7 +1152,7 @@
   <dimension ref="B1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -1151,66 +1164,66 @@
   <sheetData>
     <row r="1" spans="2:17" ht="11" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:17" ht="120" customHeight="1" thickBot="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="2:17" customFormat="1" ht="30" customHeight="1" thickBot="1"/>
-    <row r="4" spans="2:17" ht="30" customHeight="1">
-      <c r="B4" s="48" t="s">
+    <row r="4" spans="2:17" ht="30" customHeight="1" thickBot="1">
+      <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="2:17" ht="30" customHeight="1">
-      <c r="B5" s="29" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="44"/>
     </row>
-    <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="2:17" ht="30" customHeight="1" thickBot="1"/>
     <row r="8" spans="2:17" ht="60" customHeight="1">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" thickBot="1">
       <c r="B9" s="5"/>
@@ -1224,16 +1237,16 @@
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1"/>
     <row r="11" spans="2:17" ht="59" customHeight="1">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
@@ -1246,19 +1259,19 @@
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <f>C12+E12+G12</f>
         <v>0</v>
       </c>
@@ -1280,16 +1293,16 @@
       <c r="Q13"/>
     </row>
     <row r="14" spans="2:17" ht="210" customHeight="1" thickBot="1">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -1308,16 +1321,16 @@
       <c r="Q15"/>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
@@ -1326,23 +1339,23 @@
       <c r="P16"/>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="2:17" ht="30" customHeight="1">
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="2:17" ht="30" customHeight="1" thickBot="1">
+      <c r="B17" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="22"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
@@ -1351,15 +1364,15 @@
       <c r="P17"/>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="2:17" ht="30" customHeight="1">
-      <c r="B18" s="11"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+    <row r="18" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B18" s="48"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
@@ -1368,15 +1381,15 @@
       <c r="P18"/>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="2:17" ht="30" customHeight="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+    <row r="19" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B19" s="48"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
@@ -1385,15 +1398,15 @@
       <c r="P19"/>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="2:17" ht="30" customHeight="1">
-      <c r="B20" s="11"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+    <row r="20" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="48"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
@@ -1402,15 +1415,15 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="2:17" ht="30" customHeight="1">
-      <c r="B21" s="11"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+    <row r="21" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B21" s="48"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
@@ -1419,15 +1432,15 @@
       <c r="P21"/>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="2:17" ht="30" customHeight="1">
-      <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+    <row r="22" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B22" s="48"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
@@ -1436,15 +1449,15 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="2:17" ht="30" customHeight="1" thickBot="1">
-      <c r="B23" s="5"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+    <row r="23" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B23" s="48"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
@@ -1453,11 +1466,11 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="2:17" ht="30" customHeight="1" thickBot="1">
-      <c r="F24" s="13" t="s">
+    <row r="24" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="F24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <f>SUM(G18:G23)</f>
         <v>0</v>
       </c>
@@ -1479,16 +1492,16 @@
       <c r="Q25"/>
     </row>
     <row r="26" spans="2:17" ht="30" customHeight="1">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
@@ -1497,23 +1510,23 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="2:17" ht="30" customHeight="1">
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="2:17" ht="30" customHeight="1" thickBot="1">
+      <c r="B27" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="25"/>
+      <c r="I27" s="22"/>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -1522,15 +1535,15 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="2:17" ht="30" customHeight="1">
-      <c r="B28" s="11"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+    <row r="28" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B28" s="48"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
@@ -1539,15 +1552,15 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="2:17" ht="30" customHeight="1">
-      <c r="B29" s="11"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+    <row r="29" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B29" s="48"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
@@ -1556,15 +1569,15 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="2:17" ht="30" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+    <row r="30" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B30" s="48"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
@@ -1573,15 +1586,15 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="2:17" ht="30" customHeight="1">
-      <c r="B31" s="11"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+    <row r="31" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B31" s="48"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
@@ -1590,15 +1603,15 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="2:17" ht="30" customHeight="1">
-      <c r="B32" s="11"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+    <row r="32" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B32" s="48"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
@@ -1607,15 +1620,15 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="2:17" ht="30" customHeight="1" thickBot="1">
-      <c r="B33" s="5"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+    <row r="33" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B33" s="48"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
@@ -1624,11 +1637,11 @@
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="2:17" ht="30" customHeight="1" thickBot="1">
-      <c r="F34" s="13" t="s">
+    <row r="34" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="F34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="10">
         <f>SUM(G28:G33)</f>
         <v>0</v>
       </c>
@@ -1650,16 +1663,16 @@
       <c r="Q35"/>
     </row>
     <row r="36" spans="2:17" ht="30" customHeight="1">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
@@ -1668,23 +1681,23 @@
       <c r="P36"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="2:17" ht="30" customHeight="1">
-      <c r="B37" s="10" t="s">
+    <row r="37" spans="2:17" ht="30" customHeight="1" thickBot="1">
+      <c r="B37" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="25"/>
+      <c r="I37" s="22"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
@@ -1693,15 +1706,15 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="2:17" ht="30" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+    <row r="38" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B38" s="48"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
@@ -1710,15 +1723,15 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="2:17" ht="30" customHeight="1">
-      <c r="B39" s="11"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+    <row r="39" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B39" s="48"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
@@ -1727,15 +1740,15 @@
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="2:17" ht="30" customHeight="1">
-      <c r="B40" s="11"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+    <row r="40" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B40" s="48"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="18"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
@@ -1744,15 +1757,15 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="2:17" ht="30" customHeight="1">
-      <c r="B41" s="11"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+    <row r="41" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B41" s="48"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="18"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
@@ -1761,15 +1774,15 @@
       <c r="P41"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="2:17" ht="30" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+    <row r="42" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B42" s="48"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="18"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
@@ -1778,15 +1791,15 @@
       <c r="P42"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="2:17" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="5"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+    <row r="43" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B43" s="48"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
@@ -1795,11 +1808,11 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="2:17" ht="30" customHeight="1" thickBot="1">
-      <c r="F44" s="13" t="s">
+    <row r="44" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="F44" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="10">
         <f>SUM(G38:G43)</f>
         <v>0</v>
       </c>
@@ -1821,16 +1834,16 @@
       <c r="Q45"/>
     </row>
     <row r="46" spans="2:17" ht="60" customHeight="1">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="20"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
@@ -1839,23 +1852,23 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="2:17" ht="30" customHeight="1">
-      <c r="B47" s="14" t="s">
+    <row r="47" spans="2:17" ht="30" customHeight="1" thickBot="1">
+      <c r="B47" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="24" t="s">
+      <c r="H47" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="25"/>
+      <c r="I47" s="22"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
@@ -1864,15 +1877,15 @@
       <c r="P47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="2:17" ht="30" customHeight="1">
-      <c r="B48" s="11"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+    <row r="48" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B48" s="48"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="18"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
@@ -1881,15 +1894,15 @@
       <c r="P48"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="2:17" ht="30" customHeight="1">
-      <c r="B49" s="11"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+    <row r="49" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B49" s="48"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="18"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
@@ -1898,15 +1911,15 @@
       <c r="P49"/>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="2:17" ht="30" customHeight="1">
-      <c r="B50" s="11"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+    <row r="50" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B50" s="48"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="18"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
@@ -1915,15 +1928,15 @@
       <c r="P50"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="2:17" ht="30" customHeight="1">
-      <c r="B51" s="11"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+    <row r="51" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B51" s="48"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="18"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -1932,15 +1945,15 @@
       <c r="P51"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="2:17" ht="30" customHeight="1">
-      <c r="B52" s="11"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+    <row r="52" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B52" s="48"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="18"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
@@ -1949,221 +1962,221 @@
       <c r="P52"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="2:17" ht="30" customHeight="1" thickBot="1">
-      <c r="B53" s="5"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
+    <row r="53" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B53" s="48"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54" spans="2:17" ht="30" customHeight="1" thickBot="1">
-      <c r="F54" s="13" t="s">
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="F54" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="10">
         <f>SUM(G48:G53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:17" ht="30" customHeight="1" thickBot="1"/>
     <row r="56" spans="2:17" ht="30" customHeight="1">
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="28"/>
-    </row>
-    <row r="57" spans="2:17" ht="30" customHeight="1">
-      <c r="B57" s="10" t="s">
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="25"/>
+    </row>
+    <row r="57" spans="2:17" ht="30" customHeight="1" thickBot="1">
+      <c r="B57" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
       <c r="G57" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="24" t="s">
+      <c r="H57" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="25"/>
-    </row>
-    <row r="58" spans="2:17" ht="30" customHeight="1">
-      <c r="B58" s="11"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="I57" s="22"/>
+    </row>
+    <row r="58" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B58" s="48"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="18"/>
-    </row>
-    <row r="59" spans="2:17" ht="30" customHeight="1">
-      <c r="B59" s="11"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B59" s="48"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="18"/>
-    </row>
-    <row r="60" spans="2:17" ht="30" customHeight="1">
-      <c r="B60" s="11"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B60" s="48"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="2:17" ht="30" customHeight="1">
-      <c r="B61" s="11"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B61" s="48"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="18"/>
-    </row>
-    <row r="62" spans="2:17" ht="30" customHeight="1">
-      <c r="B62" s="11"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B62" s="48"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="18"/>
-    </row>
-    <row r="63" spans="2:17" ht="30" customHeight="1" thickBot="1">
-      <c r="B63" s="5"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B63" s="48"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="20"/>
-    </row>
-    <row r="64" spans="2:17" ht="30" customHeight="1" thickBot="1">
-      <c r="F64" s="13" t="s">
+      <c r="H63" s="16"/>
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="2:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="F64" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="10">
         <f>SUM(G58:G63)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="30" customHeight="1" thickBot="1"/>
     <row r="66" spans="2:9" ht="60" customHeight="1">
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="23"/>
-    </row>
-    <row r="67" spans="2:9" ht="30" customHeight="1">
-      <c r="B67" s="14" t="s">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="20"/>
+    </row>
+    <row r="67" spans="2:9" ht="30" customHeight="1" thickBot="1">
+      <c r="B67" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
       <c r="G67" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="24" t="s">
+      <c r="H67" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="25"/>
-    </row>
-    <row r="68" spans="2:9" ht="30" customHeight="1">
-      <c r="B68" s="11"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
+      <c r="I67" s="22"/>
+    </row>
+    <row r="68" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B68" s="48"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="18"/>
-    </row>
-    <row r="69" spans="2:9" ht="30" customHeight="1">
-      <c r="B69" s="11"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B69" s="48"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="18"/>
-    </row>
-    <row r="70" spans="2:9" ht="30" customHeight="1">
-      <c r="B70" s="11"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B70" s="48"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="18"/>
-    </row>
-    <row r="71" spans="2:9" ht="30" customHeight="1">
-      <c r="B71" s="11"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B71" s="48"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="18"/>
-    </row>
-    <row r="72" spans="2:9" ht="30" customHeight="1">
-      <c r="B72" s="11"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
+    </row>
+    <row r="72" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B72" s="48"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="18"/>
-    </row>
-    <row r="73" spans="2:9" ht="30" customHeight="1" thickBot="1">
-      <c r="B73" s="5"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="15"/>
+    </row>
+    <row r="73" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B73" s="48"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="20"/>
-    </row>
-    <row r="74" spans="2:9" ht="30" customHeight="1" thickBot="1">
-      <c r="F74" s="13" t="s">
+      <c r="H73" s="16"/>
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="F74" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="10">
         <f>SUM(G68:G73)</f>
         <v>0</v>
       </c>
